--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjeetpandit\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741662F1-9E49-4DEE-956F-F7CCBA601B87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{802F2863-9162-4A2D-B86D-9470CB124350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14436" windowHeight="5040" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
   </bookViews>
   <sheets>
     <sheet name="present" sheetId="1" r:id="rId1"/>
     <sheet name="future" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -3,32 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{802F2863-9162-4A2D-B86D-9470CB124350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjeetpandit\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3F7BA-992B-484A-A940-D825FFA08B65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14436" windowHeight="5040" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3756" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
   </bookViews>
   <sheets>
-    <sheet name="present" sheetId="1" r:id="rId1"/>
-    <sheet name="future" sheetId="2" r:id="rId2"/>
+    <sheet name="presentOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="futureOrder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>S.No</t>
   </si>
@@ -39,39 +37,15 @@
     <t>Place Order</t>
   </si>
   <si>
-    <t>Verifying trip cost when is scheduled not between 9PM to 5AM</t>
-  </si>
-  <si>
-    <t>Verifying trip cost when is scheduled between 9PM to 5AM</t>
-  </si>
-  <si>
-    <t>Verifying Distance count in response</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
-    <t>verify Fetch order details when order doesnt exist</t>
-  </si>
-  <si>
-    <t>Verify the Complete Order flow operation on Order does not exist.</t>
-  </si>
-  <si>
-    <t>Verify the Complete Order flow operation on already Cancel Order.</t>
-  </si>
-  <si>
     <t>Verify the Complete Order flow already Completed Order.</t>
   </si>
   <si>
-    <t>Verify Cancel flow for New order.</t>
-  </si>
-  <si>
     <t>Verify Cancel Order flow operation on Order does not exist</t>
   </si>
   <si>
-    <t>Verify Cancel Order flow operation on already Cancel Order</t>
-  </si>
-  <si>
     <t>Verify Cancel Order flow already Completed Order.</t>
   </si>
   <si>
@@ -96,28 +70,70 @@
     <t>Verify Fetch Order details of Newly created Order</t>
   </si>
   <si>
-    <t>Verify the take Order details of Newly created Order</t>
-  </si>
-  <si>
-    <t>Verify complete order flow on Newly created Order</t>
-  </si>
-  <si>
     <t>Verify Fetch details for previouly created order</t>
   </si>
   <si>
-    <t>Verify Place order with valid payload data in present</t>
-  </si>
-  <si>
-    <t>Verifying place new Order with In-Valid payload data</t>
-  </si>
-  <si>
-    <t>Verifying place new Order with past date json payload</t>
-  </si>
-  <si>
-    <t>Verify the take the Newly created Order which is already completed</t>
-  </si>
-  <si>
-    <t>Verify the take the Newly created Order which is already cancelled</t>
+    <t>Verifying place new Order for past date.</t>
+  </si>
+  <si>
+    <t>Verifying place new Order for present date.</t>
+  </si>
+  <si>
+    <t>Verifying place new Order with Invalid payload data</t>
+  </si>
+  <si>
+    <t>Verifying trip cost when 'schedule time' is not in between 9PM to 5AM</t>
+  </si>
+  <si>
+    <t>Verifying trip cost when 'schedule time' is in between 9PM to 5AM</t>
+  </si>
+  <si>
+    <t>Verifying count of distances populated in response</t>
+  </si>
+  <si>
+    <t>Verify Fetch order details when order doesnt exist</t>
+  </si>
+  <si>
+    <t>Verify the API for the Order which is already completed</t>
+  </si>
+  <si>
+    <t>Verify the API for the Order which is already cancelled</t>
+  </si>
+  <si>
+    <t>Verify the API for the Order which is already in 'on-going' state.</t>
+  </si>
+  <si>
+    <t>Verify the API for  Newly created Order.</t>
+  </si>
+  <si>
+    <t>Verify the Complete Order flow operation on Order that does not exist.</t>
+  </si>
+  <si>
+    <t>Verify the Complete Order flow operation on already Cancelled Order.</t>
+  </si>
+  <si>
+    <t>Verify complete order flow on Newly created Order that is in 'Assigned' state.</t>
+  </si>
+  <si>
+    <t>Verify complete order flow on Newly created Order that is in 'on-going' state.</t>
+  </si>
+  <si>
+    <t>Verify Cancel Order flow operation on already Cancelled Order</t>
+  </si>
+  <si>
+    <t>Verify Cancel flow for New order that is in 'Assigned' state.</t>
+  </si>
+  <si>
+    <t>Present/Future</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Note: 3 Test Cases is failing Because:
+                                               (i) In two cases, We are able to Place same order multiple times   
+                                               (ii) if we are giving all three point same then, distance and fare should be ZERO
+</t>
   </si>
 </sst>
 </file>
@@ -155,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -178,14 +194,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,32 +596,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2B11B8-5149-4583-BE6A-FCE284D7925E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="2" max="2" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -533,10 +633,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -544,10 +647,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -555,10 +661,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -566,10 +675,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -577,10 +689,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -588,186 +703,282 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -775,32 +986,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29587FD-AB2D-4CAC-8CF2-5DC3AB0E77A0}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="2" max="2" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -808,10 +1023,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -819,10 +1037,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -830,10 +1051,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -841,10 +1065,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -852,10 +1079,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -863,186 +1093,282 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjeetpandit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3F7BA-992B-484A-A940-D825FFA08B65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F1CFE8C-046C-4B86-98F1-E5847466CF7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3756" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14436" windowHeight="5040" xr2:uid="{C5DB94E6-6B18-4434-B08C-73EA494B032A}"/>
   </bookViews>
   <sheets>
     <sheet name="presentOrder" sheetId="1" r:id="rId1"/>
     <sheet name="futureOrder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A3:E17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>S.No</t>
   </si>
@@ -131,7 +127,16 @@
   </si>
   <si>
     <t xml:space="preserve">* Note: 3 Test Cases is failing Because:
-                                               (i) In two cases, We are able to Place same order multiple times   
+                                               (i) User is able to cancel a already cancelled order.  
+                                               (ii) if we are giving all three point same then, distance and fare should be ZERO
+</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Note: 3 Test Cases is failing Because:
+                                               (i) User is able to cancel a already cancelled order. 
                                                (ii) if we are giving all three point same then, distance and fare should be ZERO
 </t>
   </si>
@@ -264,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -278,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,397 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2B11B8-5149-4583-BE6A-FCE284D7925E}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A27:D28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29587FD-AB2D-4CAC-8CF2-5DC3AB0E77A0}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
@@ -1352,18 +967,408 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29587FD-AB2D-4CAC-8CF2-5DC3AB0E77A0}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
